--- a/data/raw/EGI/DATABASE E-GOVERNMENT.xlsx
+++ b/data/raw/EGI/DATABASE E-GOVERNMENT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/data/raw/EGI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1174" documentId="6_{4A70EAC4-C3B4-4950-91FC-923EC42DAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6194F933-104A-4A26-9466-1D73F2D478FA}"/>
+  <xr:revisionPtr revIDLastSave="1177" documentId="6_{4A70EAC4-C3B4-4950-91FC-923EC42DAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E56B88F2-7393-4EB8-9C4F-0C166840D4DE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2181,10 +2181,10 @@
   <dimension ref="A1:BC347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
